--- a/nar2024databases.xlsx
+++ b/nar2024databases.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="560">
   <si>
     <r>
       <rPr>
@@ -2515,6 +2515,2490 @@
       </rPr>
       <t>Brain gene expression at single cell resolution</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ABC Portal</t>
+    </r>
+  </si>
+  <si>
+    <t>http://abc.sklehabc.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Single cell transcriptomics of blood cells</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AgeAnno</t>
+    </r>
+  </si>
+  <si>
+    <t>https://relab.xidian.edu.cn/AgeAnno/#/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Single cell annotation of aging in human</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Amylograph</t>
+    </r>
+  </si>
+  <si>
+    <t>http://AmyloGraph.com/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Amyloid-amyloid interactions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Animal-SNPAtlas</t>
+    </r>
+  </si>
+  <si>
+    <t>http://gong_lab.hzau.edu.cn/Animal_SNPAtlas/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>High-quality SNPs in 20 animal species</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Antibody Registry</t>
+    </r>
+  </si>
+  <si>
+    <t>https://antibodyregistry.org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Antibodies, their antigens and catalogue numbers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aquila</t>
+    </r>
+  </si>
+  <si>
+    <t>https://aquila.cheunglab.org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spatial omics data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASCancer Atlase</t>
+    </r>
+  </si>
+  <si>
+    <t>https://ngdc.cncb.ac.cn/ascancer/home</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alternative splicing in cancer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BIC</t>
+    </r>
+  </si>
+  <si>
+    <t>http://bic.jhlab.tw/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bacteria in Cancer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brain Catalog</t>
+    </r>
+  </si>
+  <si>
+    <t>https://ngdc.cncb.ac.cn/braincatalog</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Genetics of brain disorders and related phenotypes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BV-BRC</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.bv-brc.org/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bacterial and Viral Bioinformatics Resource Center</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CEDAR</t>
+    </r>
+  </si>
+  <si>
+    <t>https://cedar.iedb.org/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cancer Epitope Database and Analysis Resource</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cell Taxonomy</t>
+    </r>
+  </si>
+  <si>
+    <t>https://ngdc.cncb.ac.cn/celltaxonomy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cell types and markers across species, tissues and conditions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cell Tracer</t>
+    </r>
+  </si>
+  <si>
+    <t>http://bio-bigdata.hrbmu.edu.cn/CellTracer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multi-omics of cellular development trajectories</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChemFOnt</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.chemfont.ca</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chemical Functional Ontology</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChemPert</t>
+    </r>
+  </si>
+  <si>
+    <t>https://chempert.uni.lu/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transcriptomics responses to pertubagens in non-cancerous cells</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMDB</t>
+    </r>
+  </si>
+  <si>
+    <t>https://db.cngb.org/cmdb/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Whole-genome sequencing data of 141,000 Chinese individuals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChromLoops</t>
+    </r>
+  </si>
+  <si>
+    <t>https://3dgenomics.hzau.edu.cn/chromloops</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Protein-mediated chromatin loops</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CohesinDB</t>
+    </r>
+  </si>
+  <si>
+    <t>https://cohesindb.iqb.u-tokyo.ac.jp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multi-omics data on cohesin functions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COMBATdb</t>
+    </r>
+  </si>
+  <si>
+    <t>https://db.combat.ox.ac.uk</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COVID-19 Multi-omics Blood Atlas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CottonMD</t>
+    </r>
+  </si>
+  <si>
+    <t>http://yanglab.hzau.edu.cn/CottonMD/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multi-omics data on cotton</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CovInter</t>
+    </r>
+  </si>
+  <si>
+    <t>https://idrblab.org/covinter</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interactions between coronavirus RNAs and host proteins</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRAMdb</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.ehbio.com/CRAMdb</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microbiome metagenomes across animals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRdb</t>
+    </r>
+  </si>
+  <si>
+    <t>http://cr.liclab.net/crdb/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Human chromatin regulators</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CREAMMIST</t>
+    </r>
+  </si>
+  <si>
+    <t>https://creammist.mtms.dev</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cancer drug dose-reponse across cell lines</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRISPRbase</t>
+    </r>
+  </si>
+  <si>
+    <t>http://crisprbase.maolab.org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRISPR Base Editing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DirectRMDB</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.rnamd.org/directRMDB/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RNA modifications from direct RNA sequencing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DRESIS</t>
+    </r>
+  </si>
+  <si>
+    <t>https://idrblab.org/dresis/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Drug resistance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DrugMAP</t>
+    </r>
+  </si>
+  <si>
+    <t>https://idrblab.org/drugmap/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Molecular Atlas and Pharma-information of drugs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DupScan</t>
+    </r>
+  </si>
+  <si>
+    <t>https://dupscan.sysumeg.com/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vertebrate genome duplications</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EDomics</t>
+    </r>
+  </si>
+  <si>
+    <t>http://edomics.qnlm.ac</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comparative multi-omics for animal Evo-Devo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EmAtlas</t>
+    </r>
+  </si>
+  <si>
+    <t>http://bioinfor.imu.edu.cn/ematlas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spatiotemporal multi-omics of mammalian embryogenesis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FAVOR</t>
+    </r>
+  </si>
+  <si>
+    <t>https://favor.genohub.org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Functional Annotation of Variants - Online Resource</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fungal Names</t>
+    </r>
+  </si>
+  <si>
+    <t>https://nmdc.cn/fungalnames/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fungal taxonomy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G4Atlas</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.g4atlas.org/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Experimentally determined RNA G-quadruplexes in transcriptomes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GAIA</t>
+    </r>
+  </si>
+  <si>
+    <t>https://gaia.cobius.usherbrooke.ca</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Predicted G-quadruplexes in genomes and transcriptomes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GenomicKB</t>
+    </r>
+  </si>
+  <si>
+    <t>https://gkb.dcmb.med.umich.edu/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Knowledge Graph for the Human Genome</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GotEnzymes</t>
+    </r>
+  </si>
+  <si>
+    <t>https://metabolicatlas.org/gotenzymes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Predicted enzyme kinetic parameters</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GPSAdb</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.gpsadb.com/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Genetic Perturbation Similarity Analysis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HGD</t>
+    </r>
+  </si>
+  <si>
+    <t>https://ngdc.cncb.ac.cn/hgd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Homolog Gene Database – expression, traits, variants across species</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HiChIPdb</t>
+    </r>
+  </si>
+  <si>
+    <t>http://health.tsinghua.edu.cn/hichipdb/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HiChIP regulatory interactions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HProteome-BSite</t>
+    </r>
+  </si>
+  <si>
+    <t>https://galaxy.seoklab.org/hproteome-bsite/database</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Predicted binding sites and ligands in the human 3D proteome</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTCA</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.htcatlas.org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Single cell transcriptomes and analytical tools</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HUSCH</t>
+    </r>
+  </si>
+  <si>
+    <t>http://husch.comp-genomics.org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Human Universal Single Cell Hub</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IAnimal</t>
+    </r>
+  </si>
+  <si>
+    <t>https://ianimal.pro/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multi-omics data for 21 animals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ipaQTL</t>
+    </r>
+  </si>
+  <si>
+    <t>http://bioinfo.szbl.ac.cn/iaQTL/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intronic polyadenylation quantitative trait loci</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IEAtlas</t>
+    </r>
+  </si>
+  <si>
+    <t>http://bio-bigdata.hrbmu.edu.cn/IEAtlas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HLA-presented immune epitopes from non-coding regions etc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ImmCluster</t>
+    </r>
+  </si>
+  <si>
+    <t>http://bio-bigdata.hrbmu.edu.cn/ImmCluster</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Immunology cell types in normal and cancer tissues</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IntroVerse</t>
+    </r>
+  </si>
+  <si>
+    <t>https://rytenlab.com/browser/app/introverse</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Introns and splicing errors/noise</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isomiRdb</t>
+    </r>
+  </si>
+  <si>
+    <t>https://anathema.cs.uni-saarland.de/isomirdb/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>microRNA isoform expression</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lineage Landscape</t>
+    </r>
+  </si>
+  <si>
+    <t>http://data.iscr.ac.cn/lineage/#/home</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Omics of lineage determination in animals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M6AREG</t>
+    </r>
+  </si>
+  <si>
+    <t>https://idrblab.org/m6areg/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m6A vs disease and drug response</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MeDBA</t>
+    </r>
+  </si>
+  <si>
+    <t>https://medba.ddtmlab.org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Metalloenzyme families, structures, ligands</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MediaDive</t>
+    </r>
+  </si>
+  <si>
+    <t>https://mediadive.dsmz.de</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Culture media</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MHC Motif Atlas</t>
+    </r>
+  </si>
+  <si>
+    <t>http://mhcmotifatlas.org/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MHC Binding Specificities and Ligands</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>microbioTA</t>
+    </r>
+  </si>
+  <si>
+    <t>http://bio-annotation.cn/microbiota</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cancer microbiomes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MiMeDB</t>
+    </r>
+  </si>
+  <si>
+    <t>https://mimedb.org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Human-microbe interactions and their metabolomes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NACDDB</t>
+    </r>
+  </si>
+  <si>
+    <t>https://genesilico.pl/nacddb/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nucleic Acid Circular Dichroism Database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NEMO Archive</t>
+    </r>
+  </si>
+  <si>
+    <t>https://nemoarchive.org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Neuroscience Multi-Omic Archive</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NLRscape</t>
+    </r>
+  </si>
+  <si>
+    <t>https://nlrscape.biochim.ro/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plant Nod-like receptors</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OrganoidDB</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.inbirg.com/organoid_db/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Organoid transcriptomics</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PAT</t>
+    </r>
+  </si>
+  <si>
+    <t>http://bioinfo.qd.sdu.edu.cn/PAT/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prokaryotic Antimicrobial Toxin database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PDCM Finder</t>
+    </r>
+  </si>
+  <si>
+    <t>www.cancermodels.org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Patient-Derived Cancer Models</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PGG.MHC</t>
+    </r>
+  </si>
+  <si>
+    <t>https://pog.fudan.edu.cn/pggmhc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Population genetics of HLA genes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PGG.SV</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.biosino.org/pggsv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Human genome structural variants</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PertOrg</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.inbirg.com/pertorg/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Changes induced in model organisms by in vivo genetic perturbation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>plantEXP</t>
+    </r>
+  </si>
+  <si>
+    <t>https://biotec.njau.edu.cn/plantExp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plant gene (co-)expression and alternative splicing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ProPan</t>
+    </r>
+  </si>
+  <si>
+    <t>https://ngdc.cncb.ac.cn/propan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prokaryotic pan-genomes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ProtCAD</t>
+    </r>
+  </si>
+  <si>
+    <t>http://dunbrack2.fccc.edu/protcad</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Protein Common Assembly Database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qPTM</t>
+    </r>
+  </si>
+  <si>
+    <t>http://qptm.omicsbio.info</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quantitative Post-Translational Modifications</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QUADRAtlas</t>
+    </r>
+  </si>
+  <si>
+    <t>https://rg4db.cibio.unitn.it</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RNA G-Quadruplex and RG4-binding proteins</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RABC</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.onethird-lab.com/RABC/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multi-omics of Rheumatoid Arthritis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RBPimage</t>
+    </r>
+  </si>
+  <si>
+    <t>http://rnabiology.ircm.qc.ca/RBPImage/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microscopy reporting subcellular distribution of human RNA binding proteins</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ribocentre</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ribocentre.org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ribozymes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RiboXYZ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://ribosome.xyz</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ribosome structures</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ribo_uORF</t>
+    </r>
+  </si>
+  <si>
+    <t>http://rnainformatics.org.cn/RiboUORF</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uORFs from ribosome profiling data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RLBase</t>
+    </r>
+  </si>
+  <si>
+    <t>https://gccri.bishop-lab.uthscsa.edu/shiny/rlbase/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R-loops in the human genome</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RM2Target</t>
+    </r>
+  </si>
+  <si>
+    <t>http://rm2target.canceromics.org/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Targets of RNA modification proteins</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SPASCER</t>
+    </r>
+  </si>
+  <si>
+    <t>https://ccsm.uth.edu/SPASCER</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spatial transcriptomics annotation at single-cell resolution</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SPEED</t>
+    </r>
+  </si>
+  <si>
+    <t>http://speedatlas.net</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Single-cell pan-species atlas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUMMER</t>
+    </r>
+  </si>
+  <si>
+    <t>http://njmu-edu.cn:3838/SUMMER/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Biomarkers, GWAS and cancer survival</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tatDB</t>
+    </r>
+  </si>
+  <si>
+    <t>https://grigoriev-lab.camden.rutgers.edu/tatdb</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Experimentally supported targets of tRNA-derived fragments</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TEDD</t>
+    </r>
+  </si>
+  <si>
+    <t>https://TEDD.obg.cuhk.edu.hk/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Temporal Expression of Development Database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TFSyntax</t>
+    </r>
+  </si>
+  <si>
+    <t>https://tfsyntax.zhaopage.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transcription Factor binding syntax</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thing Metabolome Repository family</t>
+    </r>
+  </si>
+  <si>
+    <t>http://metabolites.in/things</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LC–MS metabolomics data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TIMEDB</t>
+    </r>
+  </si>
+  <si>
+    <t>https://timedb.deepomics.org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RNAseq data and the tumor immune micro-environment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TmAlphaFold</t>
+    </r>
+  </si>
+  <si>
+    <t>https://tmalphafold.ttk.hu/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AlphaFold TM protein predictions, membrane-embedded and assessed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tModBase</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.tmodbase.com/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tRNA modifications: enzymes, dynamics, diseases</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TOXRIC</t>
+    </r>
+  </si>
+  <si>
+    <t>http://toxric.bioinforai.tech/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Toxicological data and benchmarks</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TWAS Atlas</t>
+    </r>
+  </si>
+  <si>
+    <t>https://ngdc.cncb.ac.cn/twas/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transcriptome-wide association studies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UFCG</t>
+    </r>
+  </si>
+  <si>
+    <t>https://ufcg.steineggerlab.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fungal core genes</t>
+    </r>
+  </si>
+  <si>
+    <t>Chemical Probes Portal</t>
+  </si>
+  <si>
+    <t>https://www.chemicalprobes.org/</t>
+  </si>
+  <si>
+    <t>Chemical probe assessment and selection</t>
+  </si>
+  <si>
+    <t>CIViC</t>
+  </si>
+  <si>
+    <t>https://civicdb.org/</t>
+  </si>
+  <si>
+    <t>Clinical interpretation of variants in cancer</t>
+  </si>
+  <si>
+    <t>EMPIAR</t>
+  </si>
+  <si>
+    <t>https://empiar.org/</t>
+  </si>
+  <si>
+    <t>The Electron Microscopy Public Image Archive</t>
+  </si>
+  <si>
+    <t>EpiFactors</t>
+  </si>
+  <si>
+    <t>http://epifactors.autosome.org</t>
+  </si>
+  <si>
+    <t>Human epigenetic factors and complexes</t>
+  </si>
+  <si>
+    <t>FerrDb</t>
+  </si>
+  <si>
+    <t>http://www.zhounan.org/ferrdb/</t>
+  </si>
+  <si>
+    <t>Ferroptosis regulators</t>
+  </si>
+  <si>
+    <t>SulfAtlas</t>
+  </si>
+  <si>
+    <t>https://sulfatlas.sb-roscoff.fr/</t>
+  </si>
+  <si>
+    <t>Sulfatase families</t>
   </si>
 </sst>
 </file>
@@ -3138,12 +5622,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3459,10 +5946,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C91"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182:C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3472,7 +5959,7 @@
     <col min="3" max="3" width="43.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3483,7 +5970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="108" spans="1:3">
+    <row r="2" ht="27" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -3494,7 +5981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="108" spans="1:3">
+    <row r="3" ht="27" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3505,7 +5992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="54" spans="1:3">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3516,7 +6003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="67.5" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3527,7 +6014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="67.5" spans="1:3">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3538,7 +6025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="81" spans="1:3">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -3549,7 +6036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="67.5" spans="1:3">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -3560,7 +6047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="81" spans="1:3">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -3571,7 +6058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="81" spans="1:3">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -3582,7 +6069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="94.5" spans="1:3">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -3593,7 +6080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="67.5" spans="1:3">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -3604,7 +6091,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" ht="121.5" spans="1:3">
+    <row r="13" ht="27" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -3615,7 +6102,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" ht="94.5" spans="1:3">
+    <row r="14" ht="27" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -3626,7 +6113,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" ht="108" spans="1:3">
+    <row r="15" ht="27" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -3637,7 +6124,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" ht="54" spans="1:3">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -3648,7 +6135,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" ht="81" spans="1:3">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
@@ -3659,7 +6146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" ht="121.5" spans="1:3">
+    <row r="18" ht="27" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
@@ -3670,7 +6157,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" ht="94.5" spans="1:3">
+    <row r="19" ht="27" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
@@ -3681,7 +6168,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" ht="67.5" spans="1:3">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -3692,7 +6179,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" ht="94.5" spans="1:3">
+    <row r="21" ht="27" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -3703,7 +6190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" ht="94.5" spans="1:3">
+    <row r="22" ht="27" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
@@ -3714,7 +6201,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" ht="67.5" spans="1:3">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
@@ -3725,7 +6212,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" ht="121.5" spans="1:3">
+    <row r="24" ht="27" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>69</v>
       </c>
@@ -3736,7 +6223,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" ht="121.5" spans="1:3">
+    <row r="25" ht="27" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>72</v>
       </c>
@@ -3747,7 +6234,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" ht="81" spans="1:3">
+    <row r="26" ht="27" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
@@ -3758,7 +6245,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" ht="81" spans="1:3">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>78</v>
       </c>
@@ -3769,7 +6256,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" ht="108" spans="1:3">
+    <row r="28" ht="27" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>81</v>
       </c>
@@ -3780,7 +6267,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" ht="108" spans="1:3">
+    <row r="29" ht="27" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>84</v>
       </c>
@@ -3791,7 +6278,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" ht="67.5" spans="1:3">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>87</v>
       </c>
@@ -3802,7 +6289,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" ht="67.5" spans="1:3">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>90</v>
       </c>
@@ -3813,7 +6300,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" ht="67.5" spans="1:3">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>93</v>
       </c>
@@ -3824,7 +6311,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" ht="67.5" spans="1:3">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>96</v>
       </c>
@@ -3835,7 +6322,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" ht="94.5" spans="1:3">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>99</v>
       </c>
@@ -3846,7 +6333,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" ht="108" spans="1:3">
+    <row r="35" ht="27" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>102</v>
       </c>
@@ -3857,7 +6344,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" ht="54" spans="1:3">
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>105</v>
       </c>
@@ -3868,7 +6355,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" ht="54" spans="1:3">
+    <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>108</v>
       </c>
@@ -3879,7 +6366,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" ht="81" spans="1:3">
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
         <v>111</v>
       </c>
@@ -3890,7 +6377,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" ht="121.5" spans="1:3">
+    <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
         <v>114</v>
       </c>
@@ -3901,7 +6388,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" ht="81" spans="1:3">
+    <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -3912,7 +6399,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" ht="81" spans="1:3">
+    <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -3923,7 +6410,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" ht="81" spans="1:3">
+    <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
         <v>123</v>
       </c>
@@ -3934,7 +6421,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" ht="81" spans="1:3">
+    <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
         <v>126</v>
       </c>
@@ -3945,7 +6432,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" ht="81" spans="1:3">
+    <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>129</v>
       </c>
@@ -3956,7 +6443,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" ht="81" spans="1:3">
+    <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>132</v>
       </c>
@@ -3967,7 +6454,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" ht="67.5" spans="1:3">
+    <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
         <v>135</v>
       </c>
@@ -3978,7 +6465,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" ht="81" spans="1:3">
+    <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>138</v>
       </c>
@@ -3989,7 +6476,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" ht="108" spans="1:3">
+    <row r="48" ht="27" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>141</v>
       </c>
@@ -4000,7 +6487,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" ht="108" spans="1:3">
+    <row r="49" ht="27" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>144</v>
       </c>
@@ -4011,7 +6498,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" ht="54" spans="1:3">
+    <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
         <v>147</v>
       </c>
@@ -4022,7 +6509,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" ht="108" spans="1:3">
+    <row r="51" ht="27" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>150</v>
       </c>
@@ -4033,7 +6520,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" ht="54" spans="1:3">
+    <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
         <v>153</v>
       </c>
@@ -4044,7 +6531,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" ht="54" spans="1:3">
+    <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
         <v>156</v>
       </c>
@@ -4055,7 +6542,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" ht="40.5" spans="1:3">
+    <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
         <v>159</v>
       </c>
@@ -4066,7 +6553,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" ht="54" spans="1:3">
+    <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
         <v>162</v>
       </c>
@@ -4077,7 +6564,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" ht="67.5" spans="1:3">
+    <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
         <v>165</v>
       </c>
@@ -4088,7 +6575,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" ht="67.5" spans="1:3">
+    <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
         <v>168</v>
       </c>
@@ -4099,7 +6586,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" ht="81" spans="1:3">
+    <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
         <v>171</v>
       </c>
@@ -4110,7 +6597,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" ht="67.5" spans="1:3">
+    <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
         <v>174</v>
       </c>
@@ -4121,7 +6608,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" ht="40.5" spans="1:3">
+    <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
         <v>177</v>
       </c>
@@ -4132,7 +6619,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" ht="108" spans="1:3">
+    <row r="61" ht="27" spans="1:3">
       <c r="A61" s="2" t="s">
         <v>180</v>
       </c>
@@ -4143,7 +6630,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" ht="67.5" spans="1:3">
+    <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
         <v>183</v>
       </c>
@@ -4154,7 +6641,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" ht="81" spans="1:3">
+    <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
         <v>186</v>
       </c>
@@ -4165,7 +6652,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" ht="94.5" spans="1:3">
+    <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
         <v>189</v>
       </c>
@@ -4176,7 +6663,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" ht="135" spans="1:3">
+    <row r="65" ht="27" spans="1:3">
       <c r="A65" s="2" t="s">
         <v>192</v>
       </c>
@@ -4187,7 +6674,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" ht="40.5" spans="1:3">
+    <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
         <v>195</v>
       </c>
@@ -4198,7 +6685,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" ht="94.5" spans="1:3">
+    <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
         <v>198</v>
       </c>
@@ -4209,7 +6696,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" ht="108" spans="1:3">
+    <row r="68" ht="27" spans="1:3">
       <c r="A68" s="2" t="s">
         <v>201</v>
       </c>
@@ -4220,7 +6707,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="69" ht="121.5" spans="1:3">
+    <row r="69" ht="27" spans="1:3">
       <c r="A69" s="2" t="s">
         <v>204</v>
       </c>
@@ -4231,7 +6718,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" ht="67.5" spans="1:3">
+    <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
         <v>207</v>
       </c>
@@ -4242,7 +6729,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" ht="67.5" spans="1:3">
+    <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
         <v>210</v>
       </c>
@@ -4253,7 +6740,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="72" ht="67.5" spans="1:3">
+    <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
         <v>213</v>
       </c>
@@ -4264,7 +6751,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" ht="108" spans="1:3">
+    <row r="73" ht="27" spans="1:3">
       <c r="A73" s="2" t="s">
         <v>216</v>
       </c>
@@ -4275,7 +6762,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" ht="94.5" spans="1:3">
+    <row r="74" ht="27" spans="1:3">
       <c r="A74" s="2" t="s">
         <v>219</v>
       </c>
@@ -4286,7 +6773,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" ht="54" spans="1:3">
+    <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
         <v>222</v>
       </c>
@@ -4297,7 +6784,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="76" ht="81" spans="1:3">
+    <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
         <v>225</v>
       </c>
@@ -4308,7 +6795,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="77" ht="81" spans="1:3">
+    <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
         <v>228</v>
       </c>
@@ -4319,7 +6806,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="78" ht="67.5" spans="1:3">
+    <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
         <v>231</v>
       </c>
@@ -4330,7 +6817,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="79" ht="54" spans="1:3">
+    <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
         <v>234</v>
       </c>
@@ -4341,7 +6828,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" ht="94.5" spans="1:3">
+    <row r="80" ht="27" spans="1:3">
       <c r="A80" s="2" t="s">
         <v>236</v>
       </c>
@@ -4352,7 +6839,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="81" ht="108" spans="1:3">
+    <row r="81" ht="27" spans="1:3">
       <c r="A81" s="2" t="s">
         <v>239</v>
       </c>
@@ -4363,7 +6850,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="82" ht="54" spans="1:3">
+    <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
         <v>242</v>
       </c>
@@ -4374,7 +6861,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="83" ht="81" spans="1:3">
+    <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
         <v>245</v>
       </c>
@@ -4385,7 +6872,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="84" ht="54" spans="1:3">
+    <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
         <v>248</v>
       </c>
@@ -4396,7 +6883,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="85" ht="67.5" spans="1:3">
+    <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
         <v>251</v>
       </c>
@@ -4407,7 +6894,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="86" ht="94.5" spans="1:3">
+    <row r="86" ht="27" spans="1:3">
       <c r="A86" s="2" t="s">
         <v>254</v>
       </c>
@@ -4418,7 +6905,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="87" ht="54" spans="1:3">
+    <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
         <v>257</v>
       </c>
@@ -4429,7 +6916,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="88" ht="94.5" spans="1:3">
+    <row r="88" ht="27" spans="1:3">
       <c r="A88" s="2" t="s">
         <v>260</v>
       </c>
@@ -4440,7 +6927,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" ht="81" spans="1:3">
+    <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
         <v>263</v>
       </c>
@@ -4451,7 +6938,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="90" ht="94.5" spans="1:3">
+    <row r="90" ht="27" spans="1:3">
       <c r="A90" s="2" t="s">
         <v>266</v>
       </c>
@@ -4462,7 +6949,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="91" ht="108" spans="1:3">
+    <row r="91" ht="27" spans="1:3">
       <c r="A91" s="2" t="s">
         <v>269</v>
       </c>
@@ -4471,6 +6958,1062 @@
       </c>
       <c r="C91" s="2" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="96" ht="27" spans="1:3">
+      <c r="A96" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="100" ht="27" spans="1:3">
+      <c r="A100" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="101" ht="27" spans="1:3">
+      <c r="A101" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="102" ht="27" spans="1:3">
+      <c r="A102" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103" ht="27" spans="1:3">
+      <c r="A103" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="104" ht="27" spans="1:3">
+      <c r="A104" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="106" ht="27" spans="1:3">
+      <c r="A106" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="107" ht="27" spans="1:3">
+      <c r="A107" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="112" ht="27" spans="1:3">
+      <c r="A112" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="117" ht="27" spans="1:3">
+      <c r="A117" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="119" ht="27" spans="1:3">
+      <c r="A119" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="122" ht="27" spans="1:3">
+      <c r="A122" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="123" ht="27" spans="1:3">
+      <c r="A123" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="125" ht="27" spans="1:3">
+      <c r="A125" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="126" ht="27" spans="1:3">
+      <c r="A126" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="130" ht="27" spans="1:3">
+      <c r="A130" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="132" ht="27" spans="1:3">
+      <c r="A132" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="133" ht="27" spans="1:3">
+      <c r="A133" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="136" ht="27" spans="1:3">
+      <c r="A136" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="137" ht="27" spans="1:3">
+      <c r="A137" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="138" ht="27" spans="1:3">
+      <c r="A138" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="147" ht="27" spans="1:3">
+      <c r="A147" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="156" ht="27" spans="1:3">
+      <c r="A156" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="157" ht="27" spans="1:3">
+      <c r="A157" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="160" ht="27" spans="1:3">
+      <c r="A160" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="163" ht="27" spans="1:3">
+      <c r="A163" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="169" ht="27" spans="1:3">
+      <c r="A169" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="172" ht="27" spans="1:3">
+      <c r="A172" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="175" ht="27" spans="1:3">
+      <c r="A175" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="176" ht="27" spans="1:3">
+      <c r="A176" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="177" ht="27" spans="1:3">
+      <c r="A177" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="178" ht="27" spans="1:3">
+      <c r="A178" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>542</v>
+      </c>
+      <c r="B182" t="s">
+        <v>543</v>
+      </c>
+      <c r="C182" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>545</v>
+      </c>
+      <c r="B183" t="s">
+        <v>546</v>
+      </c>
+      <c r="C183" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>548</v>
+      </c>
+      <c r="B184" t="s">
+        <v>549</v>
+      </c>
+      <c r="C184" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>551</v>
+      </c>
+      <c r="B185" t="s">
+        <v>552</v>
+      </c>
+      <c r="C185" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>554</v>
+      </c>
+      <c r="B186" t="s">
+        <v>555</v>
+      </c>
+      <c r="C186" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>557</v>
+      </c>
+      <c r="B187" t="s">
+        <v>558</v>
+      </c>
+      <c r="C187" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -4564,6 +8107,96 @@
     <hyperlink ref="B89" r:id="rId87" display="https://sites.utexas.edu/aptamerdatabase/" tooltip="https://sites.utexas.edu/aptamerdatabase/"/>
     <hyperlink ref="B90" r:id="rId88" display="https://nmdc.cn/influvar/" tooltip="https://nmdc.cn/influvar/"/>
     <hyperlink ref="B91" r:id="rId89" display="https://www.ccb.uni-saarland.de/brain_atlas" tooltip="https://www.ccb.uni-saarland.de/brain_atlas"/>
+    <hyperlink ref="B92" r:id="rId90" display="http://abc.sklehabc.com" tooltip="http://abc.sklehabc.com"/>
+    <hyperlink ref="B93" r:id="rId91" location="/" display="https://relab.xidian.edu.cn/AgeAnno/#/"/>
+    <hyperlink ref="B94" r:id="rId92" display="http://AmyloGraph.com/" tooltip="http://AmyloGraph.com/"/>
+    <hyperlink ref="B95" r:id="rId93" display="http://gong_lab.hzau.edu.cn/Animal_SNPAtlas/" tooltip="http://gong_lab.hzau.edu.cn/Animal_SNPAtlas/"/>
+    <hyperlink ref="B96" r:id="rId94" display="https://antibodyregistry.org" tooltip="https://antibodyregistry.org"/>
+    <hyperlink ref="B97" r:id="rId95" display="https://aquila.cheunglab.org" tooltip="https://aquila.cheunglab.org"/>
+    <hyperlink ref="B98" r:id="rId96" display="https://ngdc.cncb.ac.cn/ascancer/home" tooltip="https://ngdc.cncb.ac.cn/ascancer/home"/>
+    <hyperlink ref="B99" r:id="rId97" display="http://bic.jhlab.tw/" tooltip="http://bic.jhlab.tw/"/>
+    <hyperlink ref="B100" r:id="rId98" display="https://ngdc.cncb.ac.cn/braincatalog" tooltip="https://ngdc.cncb.ac.cn/braincatalog"/>
+    <hyperlink ref="B101" r:id="rId99" display="https://www.bv-brc.org/" tooltip="https://www.bv-brc.org/"/>
+    <hyperlink ref="B102" r:id="rId100" display="https://cedar.iedb.org/" tooltip="https://cedar.iedb.org/"/>
+    <hyperlink ref="B103" r:id="rId101" display="https://ngdc.cncb.ac.cn/celltaxonomy" tooltip="https://ngdc.cncb.ac.cn/celltaxonomy"/>
+    <hyperlink ref="B104" r:id="rId102" display="http://bio-bigdata.hrbmu.edu.cn/CellTracer" tooltip="http://bio-bigdata.hrbmu.edu.cn/CellTracer"/>
+    <hyperlink ref="B105" r:id="rId103" display="https://www.chemfont.ca" tooltip="https://www.chemfont.ca"/>
+    <hyperlink ref="B106" r:id="rId104" display="https://chempert.uni.lu/" tooltip="https://chempert.uni.lu/"/>
+    <hyperlink ref="B107" r:id="rId105" display="https://db.cngb.org/cmdb/" tooltip="https://db.cngb.org/cmdb/"/>
+    <hyperlink ref="B108" r:id="rId106" display="https://3dgenomics.hzau.edu.cn/chromloops" tooltip="https://3dgenomics.hzau.edu.cn/chromloops"/>
+    <hyperlink ref="B109" r:id="rId107" display="https://cohesindb.iqb.u-tokyo.ac.jp" tooltip="https://cohesindb.iqb.u-tokyo.ac.jp"/>
+    <hyperlink ref="B110" r:id="rId108" display="https://db.combat.ox.ac.uk" tooltip="https://db.combat.ox.ac.uk"/>
+    <hyperlink ref="B111" r:id="rId109" display="http://yanglab.hzau.edu.cn/CottonMD/" tooltip="http://yanglab.hzau.edu.cn/CottonMD/"/>
+    <hyperlink ref="B112" r:id="rId110" display="https://idrblab.org/covinter" tooltip="https://idrblab.org/covinter"/>
+    <hyperlink ref="B113" r:id="rId111" display="http://www.ehbio.com/CRAMdb" tooltip="http://www.ehbio.com/CRAMdb"/>
+    <hyperlink ref="B114" r:id="rId112" display="http://cr.liclab.net/crdb/" tooltip="http://cr.liclab.net/crdb/"/>
+    <hyperlink ref="B115" r:id="rId113" display="https://creammist.mtms.dev" tooltip="https://creammist.mtms.dev"/>
+    <hyperlink ref="B116" r:id="rId114" display="http://crisprbase.maolab.org" tooltip="http://crisprbase.maolab.org"/>
+    <hyperlink ref="B117" r:id="rId115" display="http://www.rnamd.org/directRMDB/" tooltip="http://www.rnamd.org/directRMDB/"/>
+    <hyperlink ref="B118" r:id="rId116" display="https://idrblab.org/dresis/" tooltip="https://idrblab.org/dresis/"/>
+    <hyperlink ref="B119" r:id="rId117" display="https://idrblab.org/drugmap/" tooltip="https://idrblab.org/drugmap/"/>
+    <hyperlink ref="B120" r:id="rId118" display="https://dupscan.sysumeg.com/" tooltip="https://dupscan.sysumeg.com/"/>
+    <hyperlink ref="B121" r:id="rId119" display="http://edomics.qnlm.ac" tooltip="http://edomics.qnlm.ac"/>
+    <hyperlink ref="B122" r:id="rId120" display="http://bioinfor.imu.edu.cn/ematlas" tooltip="http://bioinfor.imu.edu.cn/ematlas"/>
+    <hyperlink ref="B123" r:id="rId121" display="https://favor.genohub.org" tooltip="https://favor.genohub.org"/>
+    <hyperlink ref="B124" r:id="rId122" display="https://nmdc.cn/fungalnames/" tooltip="https://nmdc.cn/fungalnames/"/>
+    <hyperlink ref="B125" r:id="rId123" display="https://www.g4atlas.org/" tooltip="https://www.g4atlas.org/"/>
+    <hyperlink ref="B126" r:id="rId124" display="https://gaia.cobius.usherbrooke.ca" tooltip="https://gaia.cobius.usherbrooke.ca"/>
+    <hyperlink ref="B127" r:id="rId125" display="https://gkb.dcmb.med.umich.edu/" tooltip="https://gkb.dcmb.med.umich.edu/"/>
+    <hyperlink ref="B128" r:id="rId126" display="https://metabolicatlas.org/gotenzymes" tooltip="https://metabolicatlas.org/gotenzymes"/>
+    <hyperlink ref="B129" r:id="rId127" display="https://www.gpsadb.com/" tooltip="https://www.gpsadb.com/"/>
+    <hyperlink ref="B130" r:id="rId128" display="https://ngdc.cncb.ac.cn/hgd" tooltip="https://ngdc.cncb.ac.cn/hgd"/>
+    <hyperlink ref="B131" r:id="rId129" display="http://health.tsinghua.edu.cn/hichipdb/" tooltip="http://health.tsinghua.edu.cn/hichipdb/"/>
+    <hyperlink ref="B132" r:id="rId130" display="https://galaxy.seoklab.org/hproteome-bsite/database" tooltip="https://galaxy.seoklab.org/hproteome-bsite/database"/>
+    <hyperlink ref="B133" r:id="rId131" display="https://www.htcatlas.org" tooltip="https://www.htcatlas.org"/>
+    <hyperlink ref="B134" r:id="rId132" display="http://husch.comp-genomics.org" tooltip="http://husch.comp-genomics.org"/>
+    <hyperlink ref="B135" r:id="rId133" display="https://ianimal.pro/" tooltip="https://ianimal.pro/"/>
+    <hyperlink ref="B136" r:id="rId134" display="http://bioinfo.szbl.ac.cn/iaQTL/" tooltip="http://bioinfo.szbl.ac.cn/iaQTL/"/>
+    <hyperlink ref="B137" r:id="rId135" display="http://bio-bigdata.hrbmu.edu.cn/IEAtlas" tooltip="http://bio-bigdata.hrbmu.edu.cn/IEAtlas"/>
+    <hyperlink ref="B138" r:id="rId136" display="http://bio-bigdata.hrbmu.edu.cn/ImmCluster" tooltip="http://bio-bigdata.hrbmu.edu.cn/ImmCluster"/>
+    <hyperlink ref="B139" r:id="rId137" display="https://rytenlab.com/browser/app/introverse" tooltip="https://rytenlab.com/browser/app/introverse"/>
+    <hyperlink ref="B140" r:id="rId138" display="https://anathema.cs.uni-saarland.de/isomirdb/" tooltip="https://anathema.cs.uni-saarland.de/isomirdb/"/>
+    <hyperlink ref="B141" r:id="rId139" location="/home" display="http://data.iscr.ac.cn/lineage/#/home"/>
+    <hyperlink ref="B142" r:id="rId140" display="https://idrblab.org/m6areg/" tooltip="https://idrblab.org/m6areg/"/>
+    <hyperlink ref="B143" r:id="rId141" display="https://medba.ddtmlab.org" tooltip="https://medba.ddtmlab.org"/>
+    <hyperlink ref="B144" r:id="rId142" display="https://mediadive.dsmz.de" tooltip="https://mediadive.dsmz.de"/>
+    <hyperlink ref="B145" r:id="rId143" display="http://mhcmotifatlas.org/" tooltip="http://mhcmotifatlas.org/"/>
+    <hyperlink ref="B146" r:id="rId144" display="http://bio-annotation.cn/microbiota" tooltip="http://bio-annotation.cn/microbiota"/>
+    <hyperlink ref="B147" r:id="rId145" display="https://mimedb.org" tooltip="https://mimedb.org"/>
+    <hyperlink ref="B148" r:id="rId146" display="https://genesilico.pl/nacddb/" tooltip="https://genesilico.pl/nacddb/"/>
+    <hyperlink ref="B149" r:id="rId147" display="https://nemoarchive.org" tooltip="https://nemoarchive.org"/>
+    <hyperlink ref="B150" r:id="rId148" display="https://nlrscape.biochim.ro/" tooltip="https://nlrscape.biochim.ro/"/>
+    <hyperlink ref="B151" r:id="rId149" display="http://www.inbirg.com/organoid_db/" tooltip="http://www.inbirg.com/organoid_db/"/>
+    <hyperlink ref="B152" r:id="rId150" display="http://bioinfo.qd.sdu.edu.cn/PAT/" tooltip="http://bioinfo.qd.sdu.edu.cn/PAT/"/>
+    <hyperlink ref="B153" r:id="rId151" display="www.cancermodels.org" tooltip="http://www.cancermodels.org"/>
+    <hyperlink ref="B154" r:id="rId152" display="https://pog.fudan.edu.cn/pggmhc" tooltip="https://pog.fudan.edu.cn/pggmhc"/>
+    <hyperlink ref="B155" r:id="rId153" display="https://www.biosino.org/pggsv" tooltip="https://www.biosino.org/pggsv"/>
+    <hyperlink ref="B156" r:id="rId154" display="http://www.inbirg.com/pertorg/" tooltip="http://www.inbirg.com/pertorg/"/>
+    <hyperlink ref="B157" r:id="rId155" display="https://biotec.njau.edu.cn/plantExp" tooltip="https://biotec.njau.edu.cn/plantExp"/>
+    <hyperlink ref="B158" r:id="rId156" display="https://ngdc.cncb.ac.cn/propan" tooltip="https://ngdc.cncb.ac.cn/propan"/>
+    <hyperlink ref="B159" r:id="rId157" display="http://dunbrack2.fccc.edu/protcad" tooltip="http://dunbrack2.fccc.edu/protcad"/>
+    <hyperlink ref="B160" r:id="rId158" display="http://qptm.omicsbio.info" tooltip="http://qptm.omicsbio.info"/>
+    <hyperlink ref="B161" r:id="rId159" display="https://rg4db.cibio.unitn.it" tooltip="https://rg4db.cibio.unitn.it"/>
+    <hyperlink ref="B162" r:id="rId160" display="http://www.onethird-lab.com/RABC/" tooltip="http://www.onethird-lab.com/RABC/"/>
+    <hyperlink ref="B163" r:id="rId161" display="http://rnabiology.ircm.qc.ca/RBPImage/" tooltip="http://rnabiology.ircm.qc.ca/RBPImage/"/>
+    <hyperlink ref="B164" r:id="rId162" display="https://www.ribocentre.org" tooltip="https://www.ribocentre.org"/>
+    <hyperlink ref="B165" r:id="rId163" display="https://ribosome.xyz" tooltip="https://ribosome.xyz"/>
+    <hyperlink ref="B166" r:id="rId164" display="http://rnainformatics.org.cn/RiboUORF" tooltip="http://rnainformatics.org.cn/RiboUORF"/>
+    <hyperlink ref="B167" r:id="rId165" display="https://gccri.bishop-lab.uthscsa.edu/shiny/rlbase/" tooltip="https://gccri.bishop-lab.uthscsa.edu/shiny/rlbase/"/>
+    <hyperlink ref="B168" r:id="rId166" display="http://rm2target.canceromics.org/" tooltip="http://rm2target.canceromics.org/"/>
+    <hyperlink ref="B169" r:id="rId167" display="https://ccsm.uth.edu/SPASCER" tooltip="https://ccsm.uth.edu/SPASCER"/>
+    <hyperlink ref="B170" r:id="rId168" display="http://speedatlas.net" tooltip="http://speedatlas.net"/>
+    <hyperlink ref="B171" r:id="rId169" display="http://njmu-edu.cn:3838/SUMMER/" tooltip="http://njmu-edu.cn:3838/SUMMER/"/>
+    <hyperlink ref="B172" r:id="rId170" display="https://grigoriev-lab.camden.rutgers.edu/tatdb" tooltip="https://grigoriev-lab.camden.rutgers.edu/tatdb"/>
+    <hyperlink ref="B173" r:id="rId171" display="https://TEDD.obg.cuhk.edu.hk/" tooltip="https://TEDD.obg.cuhk.edu.hk/"/>
+    <hyperlink ref="B174" r:id="rId172" display="https://tfsyntax.zhaopage.com" tooltip="https://tfsyntax.zhaopage.com"/>
+    <hyperlink ref="B175" r:id="rId173" display="http://metabolites.in/things" tooltip="http://metabolites.in/things"/>
+    <hyperlink ref="B176" r:id="rId174" display="https://timedb.deepomics.org" tooltip="https://timedb.deepomics.org"/>
+    <hyperlink ref="B177" r:id="rId175" display="https://tmalphafold.ttk.hu/" tooltip="https://tmalphafold.ttk.hu/"/>
+    <hyperlink ref="B178" r:id="rId176" display="https://www.tmodbase.com/" tooltip="https://www.tmodbase.com/"/>
+    <hyperlink ref="B179" r:id="rId177" display="http://toxric.bioinforai.tech/" tooltip="http://toxric.bioinforai.tech/"/>
+    <hyperlink ref="B180" r:id="rId178" display="https://ngdc.cncb.ac.cn/twas/" tooltip="https://ngdc.cncb.ac.cn/twas/"/>
+    <hyperlink ref="B181" r:id="rId179" display="https://ufcg.steineggerlab.com" tooltip="https://ufcg.steineggerlab.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/nar2024databases.xlsx
+++ b/nar2024databases.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$187</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -5948,8 +5951,8 @@
   <sheetPr/>
   <dimension ref="A1:C187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182:C187"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -8017,6 +8020,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C187">
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://biocomp.chem.uw.edu.pl/A3D2/MODB" tooltip="http://biocomp.chem.uw.edu.pl/A3D2/MODB"/>
     <hyperlink ref="B3" r:id="rId2" display="https://www.ccb.uni-saarland.de/abc_humi/" tooltip="https://www.ccb.uni-saarland.de/abc_humi/"/>
